--- a/Stuff/Stuff.xlsx
+++ b/Stuff/Stuff.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Attack</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>percent chance of each explore card type? Roll when draw...</t>
+  </si>
+  <si>
+    <t>Cursed items that attach when found</t>
+  </si>
+  <si>
+    <t>Invisibility! Map.</t>
   </si>
 </sst>
 </file>
@@ -600,10 +606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,6 +680,16 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Stuff/Stuff.xlsx
+++ b/Stuff/Stuff.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Attack</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>Invisibility! Map.</t>
+  </si>
+  <si>
+    <t>What can we do for you?</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Donate</t>
+  </si>
+  <si>
+    <t>CanBeRandomScroll/CanBeRandomTraining</t>
   </si>
 </sst>
 </file>
@@ -163,8 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,62 +632,78 @@
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -692,7 +723,15 @@
         <v>36</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G8:L8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Stuff/Stuff.xlsx
+++ b/Stuff/Stuff.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Attack</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>CanBeRandomScroll/CanBeRandomTraining</t>
+  </si>
+  <si>
+    <t>CardID</t>
+  </si>
+  <si>
+    <t>CardType</t>
+  </si>
+  <si>
+    <t>TypeID</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,24 +720,44 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +773,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
